--- a/natmiOut/OldD7/LR-pairs_lrc2p/Cd14-Itga4.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Cd14-Itga4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,55 +528,55 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.887536558585589</v>
+        <v>1.029662</v>
       </c>
       <c r="H2">
-        <v>0.887536558585589</v>
+        <v>3.088986</v>
       </c>
       <c r="I2">
-        <v>0.007774100304766118</v>
+        <v>0.008285277389098726</v>
       </c>
       <c r="J2">
-        <v>0.007774100304766118</v>
+        <v>0.008285277389098728</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.317727218227285</v>
+        <v>0.3809099999999999</v>
       </c>
       <c r="N2">
-        <v>0.317727218227285</v>
+        <v>1.14273</v>
       </c>
       <c r="O2">
-        <v>0.006115759881883679</v>
+        <v>0.006635732896411959</v>
       </c>
       <c r="P2">
-        <v>0.006115759881883679</v>
+        <v>0.006635732896411961</v>
       </c>
       <c r="Q2">
-        <v>0.281994521834417</v>
+        <v>0.39220855242</v>
       </c>
       <c r="R2">
-        <v>0.281994521834417</v>
+        <v>3.52987697178</v>
       </c>
       <c r="S2">
-        <v>4.75445307616283E-05</v>
+        <v>5.49788877267406E-05</v>
       </c>
       <c r="T2">
-        <v>4.75445307616283E-05</v>
+        <v>5.497888772674064E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,55 +590,55 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.887536558585589</v>
+        <v>1.029662</v>
       </c>
       <c r="H3">
-        <v>0.887536558585589</v>
+        <v>3.088986</v>
       </c>
       <c r="I3">
-        <v>0.007774100304766118</v>
+        <v>0.008285277389098726</v>
       </c>
       <c r="J3">
-        <v>0.007774100304766118</v>
+        <v>0.008285277389098728</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>50.3201449905407</v>
+        <v>0.3194813333333333</v>
       </c>
       <c r="N3">
-        <v>50.3201449905407</v>
+        <v>0.9584440000000001</v>
       </c>
       <c r="O3">
-        <v>0.968585334617363</v>
+        <v>0.005565600255676026</v>
       </c>
       <c r="P3">
-        <v>0.968585334617363</v>
+        <v>0.005565600255676028</v>
       </c>
       <c r="Q3">
-        <v>44.66096831243236</v>
+        <v>0.3289577886426667</v>
       </c>
       <c r="R3">
-        <v>44.66096831243236</v>
+        <v>2.960620097784</v>
       </c>
       <c r="S3">
-        <v>0.007529879545040833</v>
+        <v>4.611254195511466E-05</v>
       </c>
       <c r="T3">
-        <v>0.007529879545040833</v>
+        <v>4.611254195511469E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.887536558585589</v>
+        <v>1.029662</v>
       </c>
       <c r="H4">
-        <v>0.887536558585589</v>
+        <v>3.088986</v>
       </c>
       <c r="I4">
-        <v>0.007774100304766118</v>
+        <v>0.008285277389098726</v>
       </c>
       <c r="J4">
-        <v>0.007774100304766118</v>
+        <v>0.008285277389098728</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.31433395427447</v>
+        <v>54.69403966666666</v>
       </c>
       <c r="N4">
-        <v>1.31433395427447</v>
+        <v>164.082119</v>
       </c>
       <c r="O4">
-        <v>0.02529890550075341</v>
+        <v>0.9528104755815301</v>
       </c>
       <c r="P4">
-        <v>0.02529890550075341</v>
+        <v>0.9528104755815303</v>
       </c>
       <c r="Q4">
-        <v>1.166519434608952</v>
+        <v>56.31637427125933</v>
       </c>
       <c r="R4">
-        <v>1.166519434608952</v>
+        <v>506.847368441334</v>
       </c>
       <c r="S4">
-        <v>0.0001966762289636563</v>
+        <v>0.007894299089432056</v>
       </c>
       <c r="T4">
-        <v>0.0001966762289636563</v>
+        <v>0.007894299089432059</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,55 +714,55 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.955908165619506</v>
+        <v>1.029662</v>
       </c>
       <c r="H5">
-        <v>0.955908165619506</v>
+        <v>3.088986</v>
       </c>
       <c r="I5">
-        <v>0.008372980120969729</v>
+        <v>0.008285277389098726</v>
       </c>
       <c r="J5">
-        <v>0.008372980120969729</v>
+        <v>0.008285277389098728</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.317727218227285</v>
+        <v>2.008422</v>
       </c>
       <c r="N5">
-        <v>0.317727218227285</v>
+        <v>6.025265999999999</v>
       </c>
       <c r="O5">
-        <v>0.006115759881883679</v>
+        <v>0.03498819126638183</v>
       </c>
       <c r="P5">
-        <v>0.006115759881883679</v>
+        <v>0.03498819126638184</v>
       </c>
       <c r="Q5">
-        <v>0.3037180423430325</v>
+        <v>2.067995813364</v>
       </c>
       <c r="R5">
-        <v>0.3037180423430325</v>
+        <v>18.611962320276</v>
       </c>
       <c r="S5">
-        <v>5.120713591563623E-05</v>
+        <v>0.0002898868699848149</v>
       </c>
       <c r="T5">
-        <v>5.120713591563623E-05</v>
+        <v>0.000289886869984815</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,55 +776,55 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.955908165619506</v>
+        <v>1.017189</v>
       </c>
       <c r="H6">
-        <v>0.955908165619506</v>
+        <v>3.051567</v>
       </c>
       <c r="I6">
-        <v>0.008372980120969729</v>
+        <v>0.00818491215771772</v>
       </c>
       <c r="J6">
-        <v>0.008372980120969729</v>
+        <v>0.008184912157717722</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>50.3201449905407</v>
+        <v>0.3809099999999999</v>
       </c>
       <c r="N6">
-        <v>50.3201449905407</v>
+        <v>1.14273</v>
       </c>
       <c r="O6">
-        <v>0.968585334617363</v>
+        <v>0.006635732896411959</v>
       </c>
       <c r="P6">
-        <v>0.968585334617363</v>
+        <v>0.006635732896411961</v>
       </c>
       <c r="Q6">
-        <v>48.10143749161533</v>
+        <v>0.3874574619899999</v>
       </c>
       <c r="R6">
-        <v>48.10143749161533</v>
+        <v>3.487117157909999</v>
       </c>
       <c r="S6">
-        <v>0.008109945752213993</v>
+        <v>5.431289085920966E-05</v>
       </c>
       <c r="T6">
-        <v>0.008109945752213993</v>
+        <v>5.43128908592097E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.955908165619506</v>
+        <v>1.017189</v>
       </c>
       <c r="H7">
-        <v>0.955908165619506</v>
+        <v>3.051567</v>
       </c>
       <c r="I7">
-        <v>0.008372980120969729</v>
+        <v>0.00818491215771772</v>
       </c>
       <c r="J7">
-        <v>0.008372980120969729</v>
+        <v>0.008184912157717722</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.31433395427447</v>
+        <v>0.3194813333333333</v>
       </c>
       <c r="N7">
-        <v>1.31433395427447</v>
+        <v>0.9584440000000001</v>
       </c>
       <c r="O7">
-        <v>0.02529890550075341</v>
+        <v>0.005565600255676026</v>
       </c>
       <c r="P7">
-        <v>0.02529890550075341</v>
+        <v>0.005565600255676028</v>
       </c>
       <c r="Q7">
-        <v>1.25638255924194</v>
+        <v>0.324972897972</v>
       </c>
       <c r="R7">
-        <v>1.25638255924194</v>
+        <v>2.924756081748</v>
       </c>
       <c r="S7">
-        <v>0.0002118272328401001</v>
+        <v>4.555394919767955E-05</v>
       </c>
       <c r="T7">
-        <v>0.0002118272328401001</v>
+        <v>4.555394919767958E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>111.763953374802</v>
+        <v>1.017189</v>
       </c>
       <c r="H8">
-        <v>111.763953374802</v>
+        <v>3.051567</v>
       </c>
       <c r="I8">
-        <v>0.9789615713155168</v>
+        <v>0.00818491215771772</v>
       </c>
       <c r="J8">
-        <v>0.9789615713155168</v>
+        <v>0.008184912157717722</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.317727218227285</v>
+        <v>54.69403966666666</v>
       </c>
       <c r="N8">
-        <v>0.317727218227285</v>
+        <v>164.082119</v>
       </c>
       <c r="O8">
-        <v>0.006115759881883679</v>
+        <v>0.9528104755815301</v>
       </c>
       <c r="P8">
-        <v>0.006115759881883679</v>
+        <v>0.9528104755815303</v>
       </c>
       <c r="Q8">
-        <v>35.51045000385982</v>
+        <v>55.63417551449699</v>
       </c>
       <c r="R8">
-        <v>35.51045000385982</v>
+        <v>500.7075796304729</v>
       </c>
       <c r="S8">
-        <v>0.005987093903757246</v>
+        <v>0.007798670045588069</v>
       </c>
       <c r="T8">
-        <v>0.005987093903757246</v>
+        <v>0.007798670045588072</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,55 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>111.763953374802</v>
+        <v>1.017189</v>
       </c>
       <c r="H9">
-        <v>111.763953374802</v>
+        <v>3.051567</v>
       </c>
       <c r="I9">
-        <v>0.9789615713155168</v>
+        <v>0.00818491215771772</v>
       </c>
       <c r="J9">
-        <v>0.9789615713155168</v>
+        <v>0.008184912157717722</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>50.3201449905407</v>
+        <v>2.008422</v>
       </c>
       <c r="N9">
-        <v>50.3201449905407</v>
+        <v>6.025265999999999</v>
       </c>
       <c r="O9">
-        <v>0.968585334617363</v>
+        <v>0.03498819126638183</v>
       </c>
       <c r="P9">
-        <v>0.968585334617363</v>
+        <v>0.03498819126638184</v>
       </c>
       <c r="Q9">
-        <v>5623.978338536067</v>
+        <v>2.042944765758</v>
       </c>
       <c r="R9">
-        <v>5623.978338536067</v>
+        <v>18.386502891822</v>
       </c>
       <c r="S9">
-        <v>0.9482078211301792</v>
+        <v>0.0002863752720727616</v>
       </c>
       <c r="T9">
-        <v>0.9482078211301792</v>
+        <v>0.0002863752720727617</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,60 +1024,60 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>111.763953374802</v>
+        <v>120.9972243333333</v>
       </c>
       <c r="H10">
-        <v>111.763953374802</v>
+        <v>362.991673</v>
       </c>
       <c r="I10">
-        <v>0.9789615713155168</v>
+        <v>0.9736161642487271</v>
       </c>
       <c r="J10">
-        <v>0.9789615713155168</v>
+        <v>0.9736161642487271</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>1.31433395427447</v>
+        <v>0.3809099999999999</v>
       </c>
       <c r="N10">
-        <v>1.31433395427447</v>
+        <v>1.14273</v>
       </c>
       <c r="O10">
-        <v>0.02529890550075341</v>
+        <v>0.006635732896411959</v>
       </c>
       <c r="P10">
-        <v>0.02529890550075341</v>
+        <v>0.006635732896411961</v>
       </c>
       <c r="Q10">
-        <v>146.895158784451</v>
+        <v>46.08905272080999</v>
       </c>
       <c r="R10">
-        <v>146.895158784451</v>
+        <v>414.8014744872899</v>
       </c>
       <c r="S10">
-        <v>0.02476665628158033</v>
+        <v>0.006460656809583707</v>
       </c>
       <c r="T10">
-        <v>0.02476665628158033</v>
+        <v>0.006460656809583709</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1089,57 +1089,57 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.558424799040815</v>
+        <v>120.9972243333333</v>
       </c>
       <c r="H11">
-        <v>0.558424799040815</v>
+        <v>362.991673</v>
       </c>
       <c r="I11">
-        <v>0.004891348258747262</v>
+        <v>0.9736161642487271</v>
       </c>
       <c r="J11">
-        <v>0.004891348258747262</v>
+        <v>0.9736161642487271</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.317727218227285</v>
+        <v>0.3194813333333333</v>
       </c>
       <c r="N11">
-        <v>0.317727218227285</v>
+        <v>0.9584440000000001</v>
       </c>
       <c r="O11">
-        <v>0.006115759881883679</v>
+        <v>0.005565600255676026</v>
       </c>
       <c r="P11">
-        <v>0.006115759881883679</v>
+        <v>0.005565600255676028</v>
       </c>
       <c r="Q11">
-        <v>0.1774267579883688</v>
+        <v>38.65635455964578</v>
       </c>
       <c r="R11">
-        <v>0.1774267579883688</v>
+        <v>347.907191036812</v>
       </c>
       <c r="S11">
-        <v>2.991431144916809E-05</v>
+        <v>0.005418758372673027</v>
       </c>
       <c r="T11">
-        <v>2.991431144916809E-05</v>
+        <v>0.005418758372673029</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1151,57 +1151,57 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.558424799040815</v>
+        <v>120.9972243333333</v>
       </c>
       <c r="H12">
-        <v>0.558424799040815</v>
+        <v>362.991673</v>
       </c>
       <c r="I12">
-        <v>0.004891348258747262</v>
+        <v>0.9736161642487271</v>
       </c>
       <c r="J12">
-        <v>0.004891348258747262</v>
+        <v>0.9736161642487271</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>50.3201449905407</v>
+        <v>54.69403966666666</v>
       </c>
       <c r="N12">
-        <v>50.3201449905407</v>
+        <v>164.082119</v>
       </c>
       <c r="O12">
-        <v>0.968585334617363</v>
+        <v>0.9528104755815301</v>
       </c>
       <c r="P12">
-        <v>0.968585334617363</v>
+        <v>0.9528104755815303</v>
       </c>
       <c r="Q12">
-        <v>28.10001685404736</v>
+        <v>6617.826987243898</v>
       </c>
       <c r="R12">
-        <v>28.10001685404736</v>
+        <v>59560.44288519508</v>
       </c>
       <c r="S12">
-        <v>0.004737688189928772</v>
+        <v>0.9276716804916948</v>
       </c>
       <c r="T12">
-        <v>0.004737688189928772</v>
+        <v>0.927671680491695</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1213,52 +1213,300 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.558424799040815</v>
+        <v>120.9972243333333</v>
       </c>
       <c r="H13">
-        <v>0.558424799040815</v>
+        <v>362.991673</v>
       </c>
       <c r="I13">
-        <v>0.004891348258747262</v>
+        <v>0.9736161642487271</v>
       </c>
       <c r="J13">
-        <v>0.004891348258747262</v>
+        <v>0.9736161642487271</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.31433395427447</v>
+        <v>2.008422</v>
       </c>
       <c r="N13">
-        <v>1.31433395427447</v>
+        <v>6.025265999999999</v>
       </c>
       <c r="O13">
-        <v>0.02529890550075341</v>
+        <v>0.03498819126638183</v>
       </c>
       <c r="P13">
-        <v>0.02529890550075341</v>
+        <v>0.03498819126638184</v>
       </c>
       <c r="Q13">
-        <v>0.7339566742882406</v>
+        <v>243.013487290002</v>
       </c>
       <c r="R13">
-        <v>0.7339566742882406</v>
+        <v>2187.121385610018</v>
       </c>
       <c r="S13">
-        <v>0.0001237457573693217</v>
+        <v>0.03406506857477549</v>
       </c>
       <c r="T13">
-        <v>0.0001237457573693217</v>
+        <v>0.03406506857477549</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1.232029333333333</v>
+      </c>
+      <c r="H14">
+        <v>3.696088</v>
+      </c>
+      <c r="I14">
+        <v>0.009913646204456457</v>
+      </c>
+      <c r="J14">
+        <v>0.009913646204456457</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.3809099999999999</v>
+      </c>
+      <c r="N14">
+        <v>1.14273</v>
+      </c>
+      <c r="O14">
+        <v>0.006635732896411959</v>
+      </c>
+      <c r="P14">
+        <v>0.006635732896411961</v>
+      </c>
+      <c r="Q14">
+        <v>0.4692922933599999</v>
+      </c>
+      <c r="R14">
+        <v>4.22363064024</v>
+      </c>
+      <c r="S14">
+        <v>6.578430824230126E-05</v>
+      </c>
+      <c r="T14">
+        <v>6.578430824230129E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1.232029333333333</v>
+      </c>
+      <c r="H15">
+        <v>3.696088</v>
+      </c>
+      <c r="I15">
+        <v>0.009913646204456457</v>
+      </c>
+      <c r="J15">
+        <v>0.009913646204456457</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.3194813333333333</v>
+      </c>
+      <c r="N15">
+        <v>0.9584440000000001</v>
+      </c>
+      <c r="O15">
+        <v>0.005565600255676026</v>
+      </c>
+      <c r="P15">
+        <v>0.005565600255676028</v>
+      </c>
+      <c r="Q15">
+        <v>0.3936103741191112</v>
+      </c>
+      <c r="R15">
+        <v>3.542493367072</v>
+      </c>
+      <c r="S15">
+        <v>5.517539185020452E-05</v>
+      </c>
+      <c r="T15">
+        <v>5.517539185020454E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.232029333333333</v>
+      </c>
+      <c r="H16">
+        <v>3.696088</v>
+      </c>
+      <c r="I16">
+        <v>0.009913646204456457</v>
+      </c>
+      <c r="J16">
+        <v>0.009913646204456457</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>54.69403966666666</v>
+      </c>
+      <c r="N16">
+        <v>164.082119</v>
+      </c>
+      <c r="O16">
+        <v>0.9528104755815301</v>
+      </c>
+      <c r="P16">
+        <v>0.9528104755815303</v>
+      </c>
+      <c r="Q16">
+        <v>67.38466122783022</v>
+      </c>
+      <c r="R16">
+        <v>606.461951050472</v>
+      </c>
+      <c r="S16">
+        <v>0.009445825954815187</v>
+      </c>
+      <c r="T16">
+        <v>0.00944582595481519</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.232029333333333</v>
+      </c>
+      <c r="H17">
+        <v>3.696088</v>
+      </c>
+      <c r="I17">
+        <v>0.009913646204456457</v>
+      </c>
+      <c r="J17">
+        <v>0.009913646204456457</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>2.008422</v>
+      </c>
+      <c r="N17">
+        <v>6.025265999999999</v>
+      </c>
+      <c r="O17">
+        <v>0.03498819126638183</v>
+      </c>
+      <c r="P17">
+        <v>0.03498819126638184</v>
+      </c>
+      <c r="Q17">
+        <v>2.474434817712</v>
+      </c>
+      <c r="R17">
+        <v>22.269913359408</v>
+      </c>
+      <c r="S17">
+        <v>0.0003468605495487628</v>
+      </c>
+      <c r="T17">
+        <v>0.0003468605495487628</v>
       </c>
     </row>
   </sheetData>
